--- a/doors-detector/results/house7_door_no_door.xlsx
+++ b/doors-detector/results/house7_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7261447053846489</v>
+        <v>0.7535510592396356</v>
       </c>
       <c r="F2" t="n">
         <v>2270</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>1849</v>
       </c>
       <c r="H2" t="n">
-        <v>470</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6043868371756441</v>
+        <v>0.6336325076684698</v>
       </c>
       <c r="F3" t="n">
         <v>133</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H3" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7678990263124887</v>
+        <v>0.7837199019309589</v>
       </c>
       <c r="F4" t="n">
         <v>2270</v>
       </c>
       <c r="G4" t="n">
-        <v>1870</v>
+        <v>1886</v>
       </c>
       <c r="H4" t="n">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7178077969972874</v>
+        <v>0.7211948204040405</v>
       </c>
       <c r="F5" t="n">
         <v>133</v>
       </c>
       <c r="G5" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" t="n">
         <v>207</v>
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7411739981812975</v>
+        <v>0.7526561032199246</v>
       </c>
       <c r="F6" t="n">
         <v>2270</v>
       </c>
       <c r="G6" t="n">
-        <v>1825</v>
+        <v>1839</v>
       </c>
       <c r="H6" t="n">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.702645638337258</v>
+        <v>0.7530231725586607</v>
       </c>
       <c r="F7" t="n">
         <v>133</v>
       </c>
       <c r="G7" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H7" t="n">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7695199309497238</v>
+        <v>0.7830068041678526</v>
       </c>
       <c r="F8" t="n">
         <v>2270</v>
       </c>
       <c r="G8" t="n">
-        <v>1871</v>
+        <v>1890</v>
       </c>
       <c r="H8" t="n">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.763537391872122</v>
+        <v>0.742431507947693</v>
       </c>
       <c r="F9" t="n">
         <v>133</v>
       </c>
       <c r="G9" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H9" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
